--- a/reporteProducto.xlsx
+++ b/reporteProducto.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -50,97 +50,142 @@
     <t>Ganancia_Total</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>azucar lb</t>
+  </si>
+  <si>
+    <t>unidades</t>
+  </si>
+  <si>
+    <t>333.3333333333333</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>bombones</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>frutiño</t>
+  </si>
+  <si>
+    <t>83.33333333333333</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>4500.0</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>Cepillo Colgate</t>
+    <t>gelatina</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>4000.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>helado</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>vive 100</t>
   </si>
   <si>
     <t>Unidad</t>
   </si>
   <si>
-    <t>1500.0</t>
-  </si>
-  <si>
-    <t>900.0</t>
+    <t>700.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>2400.0</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>shampoo 10ml</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ranchera x3</t>
+  </si>
+  <si>
+    <t>2500.0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>6300.0</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Atun Isabel</t>
-  </si>
-  <si>
-    <t>2800.0</t>
-  </si>
-  <si>
-    <t>4000.0</t>
-  </si>
-  <si>
-    <t>1200.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>27600.0</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Arroz Diana lb</t>
-  </si>
-  <si>
-    <t>600.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>22200.0</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Arroz Suelto</t>
-  </si>
-  <si>
-    <t>Kg</t>
-  </si>
-  <si>
-    <t>1000.0</t>
-  </si>
-  <si>
-    <t>1800.0</t>
-  </si>
-  <si>
-    <t>800.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>22400.0</t>
-  </si>
-  <si>
-    <t>158400.0</t>
-  </si>
-  <si>
-    <t>208400.0</t>
-  </si>
-  <si>
-    <t>50000.0</t>
+    <t>3500.0</t>
+  </si>
+  <si>
+    <t>25483.333333333332</t>
+  </si>
+  <si>
+    <t>49500.0</t>
+  </si>
+  <si>
+    <t>24016.666666666668</t>
   </si>
 </sst>
 </file>
@@ -243,16 +288,16 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -269,19 +314,19 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
@@ -289,28 +334,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
@@ -318,42 +363,187 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="J6" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="K6" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="L6" t="s">
+      <c r="D7" t="s">
         <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
